--- a/xlsx/shp/fact/newfact.xlsx
+++ b/xlsx/shp/fact/newfact.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="1083">
   <si>
     <t>Д шара мм.</t>
   </si>
@@ -2621,372 +2621,6 @@
     <t>8.00.00</t>
   </si>
   <si>
-    <t>25.02.2020  17.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  20.30.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  13.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  12.30.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  12.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  13.30.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  17.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  9.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  10.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  10.00.00</t>
-  </si>
-  <si>
-    <t>21.02.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  11.00.00</t>
-  </si>
-  <si>
-    <t>07.02.2020  10.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  20.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  19.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  18.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  22.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  18.20.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  10.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  12.00.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  22.30.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  0.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>14.02.2020  22.15.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  21.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  11.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  19.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  8.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  12.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  18.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  22.40.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  8.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  10.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  21.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  2.00.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  19.30.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  9.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  6.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  1.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  1.30.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  12.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  13.30.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  2.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  23.40.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  20.00.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  7.20.00</t>
-  </si>
-  <si>
-    <t>27.03.2020  11.00.00</t>
-  </si>
-  <si>
-    <t>27.03.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  21.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  16.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  10.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  10.50.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  9.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  6.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  18.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  16.30.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  4.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  23.50.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  3.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  10.30.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  10.10.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  16.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  10600</t>
-  </si>
-  <si>
-    <t>04.03.2020  0.30.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  20.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  3.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  3.30.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  12.15.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  19.10.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  21.00.00</t>
-  </si>
-  <si>
-    <t>07.02.2020  16.45.00</t>
-  </si>
-  <si>
-    <t>07.02.2020  14.30.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  20.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  16.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  19.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  8.30.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  8.30.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  15.30.00</t>
-  </si>
-  <si>
-    <t>07.03.2020  2.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  23.50.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  13.00.00</t>
-  </si>
-  <si>
-    <t>07.03.2020  00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  23.40.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  16.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  2.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  15.30.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  22.00.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  21.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  21.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  18.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  3.00</t>
-  </si>
-  <si>
-    <t>11.03.2020  14.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  15.30</t>
-  </si>
-  <si>
-    <t>06.03.2020  16.00</t>
-  </si>
-  <si>
-    <t>11.03.2020  7.20</t>
-  </si>
-  <si>
-    <t>10.03.2020  23.20</t>
-  </si>
-  <si>
-    <t>11.03.2020  3.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  4.20</t>
-  </si>
-  <si>
-    <t>11.03.2020  10.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  1.30</t>
-  </si>
-  <si>
-    <t>11.003.2020  03.00</t>
-  </si>
-  <si>
-    <t>11.03.2020  03.00</t>
-  </si>
-  <si>
-    <t>12.03.202  17.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  08.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  06.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  09.30</t>
-  </si>
-  <si>
-    <t>12.03.2020  01.30</t>
-  </si>
-  <si>
-    <t>11.03.2020  09.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  19.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  14.00</t>
-  </si>
-  <si>
-    <t>13.03.2020  01.30</t>
-  </si>
-  <si>
-    <t>10.03.2020  09.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  09.0</t>
-  </si>
-  <si>
-    <t>13.03.2020  03.00</t>
-  </si>
-  <si>
-    <t>13.00.2020  01.30</t>
-  </si>
-  <si>
-    <t>12.03.2020  12.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  17.00</t>
-  </si>
-  <si>
-    <t>13.03.2020  01.20</t>
-  </si>
-  <si>
-    <t>13.03.2020  14.00</t>
-  </si>
-  <si>
-    <t>13.03.200  14.00</t>
-  </si>
-  <si>
     <t>22.00.00</t>
   </si>
   <si>
@@ -3047,238 +2681,598 @@
     <t>8.30.00</t>
   </si>
   <si>
-    <t>21.02.2020  19.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  18.00.00</t>
-  </si>
-  <si>
-    <t>18.02.2020  13.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  13.45.00</t>
-  </si>
-  <si>
-    <t>26.02.2020  5.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  5.00.00</t>
-  </si>
-  <si>
-    <t>21.02.2020  22.00.00</t>
-  </si>
-  <si>
-    <t>15.02.2020  17.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  4.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  8.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  10.45.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  9.20.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  8.40.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  13.30.00</t>
-  </si>
-  <si>
-    <t>19.02.2020  12.55.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  4.40.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  22.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  1.30.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  13.45.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  14.10.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2020  3.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  17.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  13.40.00</t>
-  </si>
-  <si>
-    <t>22.02.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>27.02.2021  3.00.00</t>
-  </si>
-  <si>
-    <t>19.02.2020  13.30.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  15.00.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  21.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  2.15.00</t>
-  </si>
-  <si>
-    <t>02.03.2020  20.00.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  5.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  15.40.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  14.30.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  16.00.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  14.30.00</t>
-  </si>
-  <si>
-    <t>04.03.2020  5.00.00</t>
-  </si>
-  <si>
-    <t>03.02.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>03.03.2020  15.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  13.20.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  13.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  12.00.00</t>
-  </si>
-  <si>
-    <t>25.02.2020  10.30.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  23.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  0.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  1.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  0.30.00</t>
-  </si>
-  <si>
-    <t>05.02.2020  13.20.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  11.00.00</t>
-  </si>
-  <si>
-    <t>06.03.2020  14.00.00</t>
-  </si>
-  <si>
-    <t>05.03.2020  13.30.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  10.45.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  9.10.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  8.00.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  2.00.00</t>
-  </si>
-  <si>
-    <t>12.02.2020  0.00.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  26.02.2020  05.00</t>
-  </si>
-  <si>
-    <t>28.02.2020  17.?00</t>
-  </si>
-  <si>
-    <t>10.03.2020  0.45</t>
-  </si>
-  <si>
-    <t>10.03.2020  20.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  17.00</t>
-  </si>
-  <si>
-    <t>10.03.2020  0.30</t>
-  </si>
-  <si>
-    <t>10.03.2020  16.00</t>
-  </si>
-  <si>
-    <t>10.003.200  0.45</t>
-  </si>
-  <si>
-    <t>11.03.2020  22.00</t>
-  </si>
-  <si>
-    <t>11.03.2020  20.00</t>
-  </si>
-  <si>
-    <t>11.03.2020  07.30</t>
-  </si>
-  <si>
-    <t>12.03.2020  04.30</t>
-  </si>
-  <si>
-    <t>11.03.200  13.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  22.00</t>
-  </si>
-  <si>
-    <t>12.03.2020  20.00</t>
-  </si>
-  <si>
-    <t>13.03.2020  08.00</t>
-  </si>
-  <si>
-    <t>13.03.2020  20.00</t>
-  </si>
-  <si>
-    <t>13.03.2020  19.40</t>
-  </si>
-  <si>
-    <t>13.03.2020  17.00</t>
-  </si>
-  <si>
-    <t>13.03.2020  13.00</t>
-  </si>
-  <si>
-    <t>14.03.2020  01.00</t>
+    <t>25.02.2020 17.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 20.30.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 13.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 12.30.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 12.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 13.30.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 17.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 9.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 10.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 10.00.00</t>
+  </si>
+  <si>
+    <t>21.02.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 11.00.00</t>
+  </si>
+  <si>
+    <t>07.02.2020 10.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 20.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 19.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 18.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 22.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 18.20.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 10.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 12.00.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 22.30.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 0.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>14.02.2020 22.15.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 21.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 11.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 19.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 8.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 12.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 18.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 22.40.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 8.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 10.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 21.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 2.00.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 19.30.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 9.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 6.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 1.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 1.30.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 12.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 13.30.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 2.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 23.40.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 20.00.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 7.20.00</t>
+  </si>
+  <si>
+    <t>27.03.2020 11.00.00</t>
+  </si>
+  <si>
+    <t>27.03.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 21.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 16.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 10.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 10.50.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 9.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 6.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 18.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 16.30.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 4.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 23.50.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 3.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 10.30.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 10.10.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 16.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 10600</t>
+  </si>
+  <si>
+    <t>04.03.2020 0.30.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 20.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 3.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 3.30.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 12.15.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 19.10.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 21.00.00</t>
+  </si>
+  <si>
+    <t>07.02.2020 16.45.00</t>
+  </si>
+  <si>
+    <t>07.02.2020 14.30.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 20.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 16.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 19.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 8.30.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 8.30.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 15.30.00</t>
+  </si>
+  <si>
+    <t>07.03.2020 2.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 23.50.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 13.00.00</t>
+  </si>
+  <si>
+    <t>07.03.2020 00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 23.40.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 16.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 2.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 15.30.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 22.00.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 21.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 21.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 18.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 3.00</t>
+  </si>
+  <si>
+    <t>11.03.2020 14.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 15.30</t>
+  </si>
+  <si>
+    <t>06.03.2020 16.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 23.20</t>
+  </si>
+  <si>
+    <t>11.03.2020 3.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 4.20</t>
+  </si>
+  <si>
+    <t>11.03.2020 10.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 1.30</t>
+  </si>
+  <si>
+    <t>11.003.2020 03.00</t>
+  </si>
+  <si>
+    <t>11.03.2020 03.00</t>
+  </si>
+  <si>
+    <t>12.03.202 17.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 08.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 06.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 09.30</t>
+  </si>
+  <si>
+    <t>12.03.2020 01.30</t>
+  </si>
+  <si>
+    <t>11.03.2020 09.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 19.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 14.00</t>
+  </si>
+  <si>
+    <t>13.03.2020 01.30</t>
+  </si>
+  <si>
+    <t>10.03.2020 09.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 09.0</t>
+  </si>
+  <si>
+    <t>13.03.2020 03.00</t>
+  </si>
+  <si>
+    <t>13.00.2020 01.30</t>
+  </si>
+  <si>
+    <t>12.03.2020 12.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 17.00</t>
+  </si>
+  <si>
+    <t>13.03.2020 01.20</t>
+  </si>
+  <si>
+    <t>13.03.2020 14.00</t>
+  </si>
+  <si>
+    <t>13.03.200 14.00</t>
+  </si>
+  <si>
+    <t>21.02.2020 19.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 18.00.00</t>
+  </si>
+  <si>
+    <t>18.02.2020 13.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 13.45.00</t>
+  </si>
+  <si>
+    <t>26.02.2020 5.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 5.00.00</t>
+  </si>
+  <si>
+    <t>21.02.2020 22.00.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.02.2020 05.00</t>
+  </si>
+  <si>
+    <t>15.02.2020 17.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 4.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 8.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 10.45.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 9.20.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 8.40.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 13.30.00</t>
+  </si>
+  <si>
+    <t>19.02.2020 12.55.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 4.40.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 22.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 1.30.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 13.45.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 14.10.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2020 3.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 17.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 17.?00</t>
+  </si>
+  <si>
+    <t>28.02.2020 13.40.00</t>
+  </si>
+  <si>
+    <t>22.02.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>27.02.2021 3.00.00</t>
+  </si>
+  <si>
+    <t>19.02.2020 13.30.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 15.00.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 21.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 2.15.00</t>
+  </si>
+  <si>
+    <t>02.03.2020 20.00.00</t>
+  </si>
+  <si>
+    <t>28.02.2020 5.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 15.40.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 14.30.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 16.00.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 14.30.00</t>
+  </si>
+  <si>
+    <t>04.03.2020 5.00.00</t>
+  </si>
+  <si>
+    <t>03.02.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>03.03.2020 15.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 13.20.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 13.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 12.00.00</t>
+  </si>
+  <si>
+    <t>25.02.2020 10.30.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 23.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 0.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 1.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 0.30.00</t>
+  </si>
+  <si>
+    <t>05.02.2020 13.20.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 11.00.00</t>
+  </si>
+  <si>
+    <t>06.03.2020 14.00.00</t>
+  </si>
+  <si>
+    <t>05.03.2020 13.30.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 10.45.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 9.10.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 8.00.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 0.45</t>
+  </si>
+  <si>
+    <t>10.03.2020 2.00.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 20.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 17.00</t>
+  </si>
+  <si>
+    <t>10.03.2020 0.30</t>
+  </si>
+  <si>
+    <t>10.03.2020 16.00</t>
+  </si>
+  <si>
+    <t>10.003.200 0.45</t>
+  </si>
+  <si>
+    <t>11.03.2020 22.00</t>
+  </si>
+  <si>
+    <t>11.03.2020 20.00</t>
+  </si>
+  <si>
+    <t>11.03.2020 07.30</t>
+  </si>
+  <si>
+    <t>12.03.2020 04.30</t>
+  </si>
+  <si>
+    <t>11.03.200 13.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 22.00</t>
+  </si>
+  <si>
+    <t>12.03.2020 20.00</t>
+  </si>
+  <si>
+    <t>12.02.2020 0.00.00</t>
+  </si>
+  <si>
+    <t>13.03.2020 08.00</t>
+  </si>
+  <si>
+    <t>13.03.2020 20.00</t>
+  </si>
+  <si>
+    <t>13.03.2020 19.40</t>
+  </si>
+  <si>
+    <t>13.03.2020 13.00</t>
+  </si>
+  <si>
+    <t>14.03.2020 01.00</t>
   </si>
 </sst>
 </file>
@@ -3860,6 +3854,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3876,12 +3876,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3915,6 +3909,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3963,7 +3960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3998,7 +3995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4209,9 +4206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L436"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="LH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="LU16" sqref="LU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12597,8 +12594,8 @@
   <dimension ref="A1:K887"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <pane ySplit="3" topLeftCell="A643" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E662" sqref="E662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12617,17 +12614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
@@ -12649,10 +12646,10 @@
       <c r="D2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="110" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="98" t="s">
@@ -12661,7 +12658,7 @@
       <c r="H2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="104" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="95" t="s">
@@ -12674,11 +12671,11 @@
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="99"/>
       <c r="H3" s="99"/>
-      <c r="I3" s="111"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
@@ -12697,7 +12694,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E4" s="22">
         <v>300</v>
@@ -12722,7 +12719,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="68" t="s">
@@ -12751,7 +12748,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="E6" s="22">
         <v>300</v>
@@ -12774,7 +12771,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="68" t="s">
@@ -12803,7 +12800,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E8" s="22">
         <v>300</v>
@@ -12826,7 +12823,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="68" t="s">
@@ -12855,7 +12852,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E10" s="22">
         <v>300</v>
@@ -12878,7 +12875,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="68" t="s">
@@ -12907,7 +12904,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="E12" s="22">
         <v>300</v>
@@ -12930,7 +12927,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="68" t="s">
@@ -12959,7 +12956,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="E14" s="22">
         <v>300</v>
@@ -12982,7 +12979,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="E15" s="88"/>
       <c r="F15" s="68" t="s">
@@ -13011,7 +13008,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E16" s="22">
         <v>300</v>
@@ -13034,7 +13031,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E17" s="88"/>
       <c r="F17" s="68" t="s">
@@ -13063,7 +13060,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E18" s="22">
         <v>300</v>
@@ -13086,7 +13083,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E19" s="88"/>
       <c r="F19" s="68" t="s">
@@ -13140,7 +13137,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E21" s="22">
         <v>260</v>
@@ -13192,7 +13189,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="E23" s="22">
         <v>250</v>
@@ -13344,7 +13341,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E29" s="22">
         <v>275</v>
@@ -13596,7 +13593,7 @@
         <v>62</v>
       </c>
       <c r="D39" s="92" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="E39" s="22">
         <v>260</v>
@@ -13698,7 +13695,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="E43" s="22">
         <v>300</v>
@@ -13721,7 +13718,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="E44" s="88"/>
       <c r="F44" s="68" t="s">
@@ -13750,7 +13747,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E45" s="22">
         <v>300</v>
@@ -13773,7 +13770,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="19" t="s">
@@ -13802,7 +13799,7 @@
         <v>67</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="E47" s="22">
         <v>300</v>
@@ -13825,7 +13822,7 @@
         <v>67</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="19" t="s">
@@ -13854,7 +13851,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="E49" s="22">
         <v>300</v>
@@ -13877,7 +13874,7 @@
         <v>40</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="19" t="s">
@@ -13906,7 +13903,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E51" s="22">
         <v>300</v>
@@ -13929,7 +13926,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E52" s="88"/>
       <c r="F52" s="68" t="s">
@@ -13958,7 +13955,7 @@
         <v>36</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="E53" s="22">
         <v>300</v>
@@ -13981,7 +13978,7 @@
         <v>36</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="17" t="s">
@@ -14010,7 +14007,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E55" s="22">
         <v>300</v>
@@ -14033,7 +14030,7 @@
         <v>68</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E56" s="88"/>
       <c r="F56" s="19" t="s">
@@ -14062,7 +14059,7 @@
         <v>70</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="E57" s="22">
         <v>300</v>
@@ -14085,7 +14082,7 @@
         <v>70</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="E58" s="88"/>
       <c r="F58" s="19" t="s">
@@ -14114,7 +14111,7 @@
         <v>41</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E59" s="88">
         <v>250</v>
@@ -14141,7 +14138,7 @@
         <v>42</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E60" s="34">
         <v>250</v>
@@ -14293,7 +14290,7 @@
         <v>68</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E66" s="34">
         <v>300</v>
@@ -14316,7 +14313,7 @@
         <v>68</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E67" s="88"/>
       <c r="F67" s="68" t="s">
@@ -14345,7 +14342,7 @@
         <v>75</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E68" s="34">
         <v>300</v>
@@ -14368,7 +14365,7 @@
         <v>75</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E69" s="88"/>
       <c r="F69" s="68" t="s">
@@ -14397,7 +14394,7 @@
         <v>76</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E70" s="34">
         <v>300</v>
@@ -14420,7 +14417,7 @@
         <v>76</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E71" s="88"/>
       <c r="F71" s="68" t="s">
@@ -14449,7 +14446,7 @@
         <v>163</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="E72" s="34">
         <v>300</v>
@@ -14472,7 +14469,7 @@
         <v>163</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="E73" s="88"/>
       <c r="F73" s="68" t="s">
@@ -14501,7 +14498,7 @@
         <v>164</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E74" s="34">
         <v>300</v>
@@ -14524,7 +14521,7 @@
         <v>164</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E75" s="88"/>
       <c r="F75" s="68" t="s">
@@ -14553,7 +14550,7 @@
         <v>165</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E76" s="34">
         <v>300</v>
@@ -14576,7 +14573,7 @@
         <v>165</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E77" s="88"/>
       <c r="F77" s="68" t="s">
@@ -14605,7 +14602,7 @@
         <v>76</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E78" s="34">
         <v>300</v>
@@ -14628,7 +14625,7 @@
         <v>76</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E79" s="88"/>
       <c r="F79" s="68" t="s">
@@ -14657,7 +14654,7 @@
         <v>68</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E80" s="34">
         <v>300</v>
@@ -14680,7 +14677,7 @@
         <v>68</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E81" s="88"/>
       <c r="F81" s="68" t="s">
@@ -14709,7 +14706,7 @@
         <v>44</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E82" s="34">
         <v>300</v>
@@ -14732,7 +14729,7 @@
         <v>44</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E83" s="88"/>
       <c r="F83" s="68" t="s">
@@ -14761,7 +14758,7 @@
         <v>75</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E84" s="34">
         <v>300</v>
@@ -14784,7 +14781,7 @@
         <v>75</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E85" s="88"/>
       <c r="F85" s="68" t="s">
@@ -14813,7 +14810,7 @@
         <v>166</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E86" s="34">
         <v>80</v>
@@ -14836,7 +14833,7 @@
         <v>166</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E87" s="88"/>
       <c r="F87" s="68" t="s">
@@ -14890,7 +14887,7 @@
         <v>67</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="E89" s="34">
         <v>240</v>
@@ -14917,7 +14914,7 @@
         <v>70</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="E90" s="34">
         <v>250</v>
@@ -14994,7 +14991,7 @@
         <v>40</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="E93" s="34">
         <v>270</v>
@@ -15021,7 +15018,7 @@
         <v>39</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="E94" s="34">
         <v>260</v>
@@ -15048,7 +15045,7 @@
         <v>38</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E95" s="34">
         <v>253</v>
@@ -15100,7 +15097,7 @@
         <v>36</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="E97" s="34">
         <v>250</v>
@@ -15152,7 +15149,7 @@
         <v>172</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="E99" s="34">
         <v>300</v>
@@ -15175,7 +15172,7 @@
         <v>172</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="E100" s="88"/>
       <c r="F100" s="68" t="s">
@@ -15206,7 +15203,7 @@
         <v>76</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E101" s="34">
         <v>300</v>
@@ -15229,7 +15226,7 @@
         <v>76</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E102" s="88"/>
       <c r="F102" s="68" t="s">
@@ -15260,7 +15257,7 @@
         <v>166</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E103" s="34">
         <v>80</v>
@@ -15283,7 +15280,7 @@
         <v>166</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E104" s="88"/>
       <c r="F104" s="68" t="s">
@@ -15314,7 +15311,7 @@
         <v>35</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E105" s="34">
         <v>290</v>
@@ -15366,7 +15363,7 @@
         <v>68</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E107" s="34">
         <v>255</v>
@@ -15393,7 +15390,7 @@
         <v>174</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E108" s="34">
         <v>300</v>
@@ -15416,7 +15413,7 @@
         <v>174</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E109" s="88"/>
       <c r="F109" s="68" t="s">
@@ -15445,7 +15442,7 @@
         <v>175</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="E110" s="34">
         <v>300</v>
@@ -15470,7 +15467,7 @@
         <v>175</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="E111" s="88"/>
       <c r="F111" s="19" t="s">
@@ -15499,7 +15496,7 @@
         <v>165</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E112" s="34">
         <v>300</v>
@@ -15524,7 +15521,7 @@
         <v>165</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E113" s="88"/>
       <c r="F113" s="68" t="s">
@@ -15553,7 +15550,7 @@
         <v>163</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="E114" s="34">
         <v>300</v>
@@ -15576,7 +15573,7 @@
         <v>163</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="E115" s="34"/>
       <c r="F115" s="68" t="s">
@@ -15605,7 +15602,7 @@
         <v>176</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="E116" s="34">
         <v>300</v>
@@ -15628,7 +15625,7 @@
         <v>176</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="E117" s="88"/>
       <c r="F117" s="68" t="s">
@@ -15657,7 +15654,7 @@
         <v>177</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="E118" s="34">
         <v>300</v>
@@ -15680,7 +15677,7 @@
         <v>177</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="E119" s="88"/>
       <c r="F119" s="68" t="s">
@@ -15709,7 +15706,7 @@
         <v>75</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E120" s="34">
         <v>300</v>
@@ -15732,7 +15729,7 @@
         <v>75</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E121" s="88"/>
       <c r="F121" s="68" t="s">
@@ -15761,7 +15758,7 @@
         <v>164</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="E122" s="34">
         <v>300</v>
@@ -15784,7 +15781,7 @@
         <v>164</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="E123" s="88"/>
       <c r="F123" s="68" t="s">
@@ -15813,7 +15810,7 @@
         <v>178</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E124" s="34">
         <v>300</v>
@@ -15836,7 +15833,7 @@
         <v>178</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E125" s="88"/>
       <c r="F125" s="68" t="s">
@@ -15865,7 +15862,7 @@
         <v>179</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="E126" s="34">
         <v>300</v>
@@ -15888,7 +15885,7 @@
         <v>179</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="E127" s="88"/>
       <c r="F127" s="68" t="s">
@@ -15917,7 +15914,7 @@
         <v>164</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E128" s="34">
         <v>300</v>
@@ -15940,7 +15937,7 @@
         <v>164</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E129" s="88"/>
       <c r="F129" s="68" t="s">
@@ -15969,7 +15966,7 @@
         <v>178</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E130" s="34">
         <v>300</v>
@@ -15992,7 +15989,7 @@
         <v>178</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E131" s="88"/>
       <c r="F131" s="68" t="s">
@@ -16021,7 +16018,7 @@
         <v>174</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E132" s="34">
         <v>300</v>
@@ -16044,7 +16041,7 @@
         <v>174</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E133" s="88"/>
       <c r="F133" s="68" t="s">
@@ -16073,7 +16070,7 @@
         <v>181</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E134" s="34">
         <v>300</v>
@@ -16096,7 +16093,7 @@
         <v>181</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E135" s="88"/>
       <c r="F135" s="68" t="s">
@@ -16125,7 +16122,7 @@
         <v>166</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E136" s="34">
         <v>80</v>
@@ -16148,7 +16145,7 @@
         <v>166</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E137" s="88"/>
       <c r="F137" s="68" t="s">
@@ -16177,7 +16174,7 @@
         <v>76</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E138" s="34">
         <v>200</v>
@@ -16200,7 +16197,7 @@
         <v>76</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E139" s="88"/>
       <c r="F139" s="68" t="s">
@@ -16225,7 +16222,7 @@
         <v>75</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E140" s="34">
         <v>240</v>
@@ -16252,7 +16249,7 @@
         <v>44</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E141" s="34">
         <v>250</v>
@@ -16279,7 +16276,7 @@
         <v>165</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E142" s="34">
         <v>250</v>
@@ -16306,7 +16303,7 @@
         <v>163</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="E143" s="34">
         <v>260</v>
@@ -16333,7 +16330,7 @@
         <v>181</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E144" s="34">
         <v>300</v>
@@ -16356,7 +16353,7 @@
         <v>181</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E145" s="88"/>
       <c r="F145" s="68" t="s">
@@ -16385,7 +16382,7 @@
         <v>178</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E146" s="34">
         <v>300</v>
@@ -16408,7 +16405,7 @@
         <v>178</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E147" s="88"/>
       <c r="F147" s="68" t="s">
@@ -16437,7 +16434,7 @@
         <v>237</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="E148" s="34">
         <v>300</v>
@@ -16460,7 +16457,7 @@
         <v>237</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="E149" s="88"/>
       <c r="F149" s="68" t="s">
@@ -16489,7 +16486,7 @@
         <v>174</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E150" s="34">
         <v>300</v>
@@ -16512,7 +16509,7 @@
         <v>174</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E151" s="88"/>
       <c r="F151" s="68" t="s">
@@ -16541,7 +16538,7 @@
         <v>238</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="E152" s="34">
         <v>300</v>
@@ -16564,7 +16561,7 @@
         <v>238</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="E153" s="88"/>
       <c r="F153" s="68" t="s">
@@ -16593,7 +16590,7 @@
         <v>239</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E154" s="34">
         <v>300</v>
@@ -16616,7 +16613,7 @@
         <v>239</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E155" s="88"/>
       <c r="F155" s="68" t="s">
@@ -16645,7 +16642,7 @@
         <v>240</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="E156" s="34">
         <v>300</v>
@@ -16668,7 +16665,7 @@
         <v>240</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="E157" s="88"/>
       <c r="F157" s="68" t="s">
@@ -16697,7 +16694,7 @@
         <v>241</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E158" s="34">
         <v>300</v>
@@ -16720,7 +16717,7 @@
         <v>241</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E159" s="88"/>
       <c r="F159" s="68" t="s">
@@ -16749,7 +16746,7 @@
         <v>242</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E160" s="34">
         <v>300</v>
@@ -16772,7 +16769,7 @@
         <v>242</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E161" s="88"/>
       <c r="F161" s="68" t="s">
@@ -16801,7 +16798,7 @@
         <v>291</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E162" s="34">
         <v>80</v>
@@ -16824,7 +16821,7 @@
         <v>291</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E163" s="34"/>
       <c r="F163" s="19" t="s">
@@ -16853,7 +16850,7 @@
         <v>292</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="E164" s="34">
         <v>300</v>
@@ -16876,7 +16873,7 @@
         <v>292</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="E165" s="88"/>
       <c r="F165" s="68" t="s">
@@ -16905,7 +16902,7 @@
         <v>241</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E166" s="34">
         <v>300</v>
@@ -16928,7 +16925,7 @@
         <v>241</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E167" s="88"/>
       <c r="F167" s="68" t="s">
@@ -16957,7 +16954,7 @@
         <v>242</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E168" s="34">
         <v>300</v>
@@ -16980,7 +16977,7 @@
         <v>242</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E169" s="88"/>
       <c r="F169" s="68" t="s">
@@ -17009,7 +17006,7 @@
         <v>164</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E170" s="34">
         <v>300</v>
@@ -17032,7 +17029,7 @@
         <v>164</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E171" s="88"/>
       <c r="F171" s="68" t="s">
@@ -17061,7 +17058,7 @@
         <v>238</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="E172" s="34">
         <v>300</v>
@@ -17105,7 +17102,7 @@
         <v>178</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E174" s="34">
         <v>300</v>
@@ -17149,7 +17146,7 @@
         <v>241</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E176" s="34">
         <v>300</v>
@@ -17193,7 +17190,7 @@
         <v>292</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="E178" s="34">
         <v>300</v>
@@ -17237,7 +17234,7 @@
         <v>291</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E180" s="34">
         <v>80</v>
@@ -17281,7 +17278,7 @@
         <v>101</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E182" s="34">
         <v>30</v>
@@ -17325,7 +17322,7 @@
         <v>242</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E184" s="34">
         <v>300</v>
@@ -17369,7 +17366,7 @@
         <v>293</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E186" s="34">
         <v>300</v>
@@ -17413,7 +17410,7 @@
         <v>294</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E188" s="34">
         <v>270</v>
@@ -17457,7 +17454,7 @@
         <v>101</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E190" s="34">
         <v>300</v>
@@ -17501,7 +17498,7 @@
         <v>241</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E192" s="34">
         <v>300</v>
@@ -17545,7 +17542,7 @@
         <v>240</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="E194" s="34">
         <v>300</v>
@@ -17589,7 +17586,7 @@
         <v>178</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E196" s="34">
         <v>300</v>
@@ -17633,7 +17630,7 @@
         <v>103</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="E198" s="34">
         <v>300</v>
@@ -17677,7 +17674,7 @@
         <v>295</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E200" s="34">
         <v>300</v>
@@ -17721,7 +17718,7 @@
         <v>297</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="E202" s="34">
         <v>300</v>
@@ -17763,7 +17760,7 @@
         <v>296</v>
       </c>
       <c r="D204" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E204" s="34">
         <v>300</v>
@@ -17807,7 +17804,7 @@
         <v>298</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E206" s="34">
         <v>270</v>
@@ -17851,7 +17848,7 @@
         <v>299</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E208" s="34">
         <v>300</v>
@@ -17882,7 +17879,7 @@
         <v>97</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E209" s="34">
         <v>300</v>
@@ -17913,7 +17910,7 @@
         <v>332</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E210" s="34">
         <v>300</v>
@@ -17944,7 +17941,7 @@
         <v>101</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E211" s="34">
         <v>300</v>
@@ -17975,7 +17972,7 @@
         <v>296</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E212" s="34">
         <v>300</v>
@@ -18006,7 +18003,7 @@
         <v>103</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="E213" s="34">
         <v>300</v>
@@ -18037,7 +18034,7 @@
         <v>333</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E214" s="34">
         <v>300</v>
@@ -18068,7 +18065,7 @@
         <v>295</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E215" s="34">
         <v>300</v>
@@ -18099,7 +18096,7 @@
         <v>295</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E216" s="34">
         <v>300</v>
@@ -18130,7 +18127,7 @@
         <v>97</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E217" s="34">
         <v>300</v>
@@ -18161,7 +18158,7 @@
         <v>101</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E218" s="34">
         <v>300</v>
@@ -18192,7 +18189,7 @@
         <v>334</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E219" s="34">
         <v>300</v>
@@ -18223,7 +18220,7 @@
         <v>335</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="E220" s="34">
         <v>300</v>
@@ -18254,7 +18251,7 @@
         <v>103</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="E221" s="34">
         <v>300</v>
@@ -18285,7 +18282,7 @@
         <v>182</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E222" s="34">
         <v>300</v>
@@ -18316,7 +18313,7 @@
         <v>332</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E223" s="34">
         <v>300</v>
@@ -18347,7 +18344,7 @@
         <v>336</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E224" s="34">
         <v>300</v>
@@ -18378,7 +18375,7 @@
         <v>337</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E225" s="34">
         <v>300</v>
@@ -18409,7 +18406,7 @@
         <v>335</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="E226" s="34">
         <v>300</v>
@@ -18440,7 +18437,7 @@
         <v>182</v>
       </c>
       <c r="D227" s="19" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E227" s="34">
         <v>300</v>
@@ -18471,7 +18468,7 @@
         <v>336</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E228" s="34">
         <v>300</v>
@@ -18502,7 +18499,7 @@
         <v>337</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E229" s="34">
         <v>300</v>
@@ -18533,7 +18530,7 @@
         <v>362</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="E230" s="34">
         <v>300</v>
@@ -18564,7 +18561,7 @@
         <v>93</v>
       </c>
       <c r="D231" s="33" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="E231" s="34"/>
       <c r="F231" s="21" t="s">
@@ -18593,7 +18590,7 @@
         <v>234</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="E232" s="34"/>
       <c r="F232" s="21" t="s">
@@ -18622,7 +18619,7 @@
         <v>363</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="E233" s="34"/>
       <c r="F233" s="36" t="s">
@@ -18651,7 +18648,7 @@
         <v>364</v>
       </c>
       <c r="D234" s="19" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="E234" s="34"/>
       <c r="F234" s="36" t="s">
@@ -18680,7 +18677,7 @@
         <v>365</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E235" s="34"/>
       <c r="F235" s="36" t="s">
@@ -18709,7 +18706,7 @@
         <v>103</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="E236" s="34">
         <v>230</v>
@@ -18736,7 +18733,7 @@
         <v>241</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E237" s="34">
         <v>240</v>
@@ -18763,7 +18760,7 @@
         <v>242</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E238" s="34">
         <v>250</v>
@@ -18790,7 +18787,7 @@
         <v>164</v>
       </c>
       <c r="D239" s="19" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E239" s="34">
         <v>255</v>
@@ -18817,7 +18814,7 @@
         <v>138</v>
       </c>
       <c r="D240" s="19" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="E240" s="34">
         <v>210</v>
@@ -18844,7 +18841,7 @@
         <v>238</v>
       </c>
       <c r="D241" s="19" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="E241" s="34">
         <v>260</v>
@@ -18871,7 +18868,7 @@
         <v>366</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="E242" s="34">
         <v>250</v>
@@ -18898,7 +18895,7 @@
         <v>237</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="E243" s="34">
         <v>260</v>
@@ -18925,7 +18922,7 @@
         <v>362</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="E244" s="34">
         <v>300</v>
@@ -18956,7 +18953,7 @@
         <v>365</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E245" s="34">
         <v>300</v>
@@ -18987,7 +18984,7 @@
         <v>363</v>
       </c>
       <c r="D246" s="19" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="E246" s="34"/>
       <c r="F246" s="21" t="s">
@@ -19016,7 +19013,7 @@
         <v>367</v>
       </c>
       <c r="D247" s="19" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="E247" s="34"/>
       <c r="F247" s="21" t="s">
@@ -19045,7 +19042,7 @@
         <v>239</v>
       </c>
       <c r="D248" s="19" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E248" s="34">
         <v>260</v>
@@ -19072,7 +19069,7 @@
         <v>175</v>
       </c>
       <c r="D249" s="19" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="E249" s="34">
         <v>260</v>
@@ -19099,7 +19096,7 @@
         <v>97</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E250" s="34">
         <v>270</v>
@@ -19126,7 +19123,7 @@
         <v>182</v>
       </c>
       <c r="D251" s="19" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E251" s="34">
         <v>230</v>
@@ -19153,7 +19150,7 @@
         <v>101</v>
       </c>
       <c r="D252" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E252" s="34">
         <v>250</v>
@@ -19180,7 +19177,7 @@
         <v>296</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E253" s="34">
         <v>270</v>
@@ -19207,7 +19204,7 @@
         <v>295</v>
       </c>
       <c r="D254" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E254" s="34">
         <v>280</v>
@@ -19234,7 +19231,7 @@
         <v>333</v>
       </c>
       <c r="D255" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E255" s="34">
         <v>270</v>
@@ -19261,7 +19258,7 @@
         <v>297</v>
       </c>
       <c r="D256" s="19" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="E256" s="34">
         <v>270</v>
@@ -19288,7 +19285,7 @@
         <v>368</v>
       </c>
       <c r="D257" s="19" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="E257" s="34">
         <v>300</v>
@@ -19319,7 +19316,7 @@
         <v>362</v>
       </c>
       <c r="D258" s="19" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="E258" s="34">
         <v>300</v>
@@ -19350,7 +19347,7 @@
         <v>369</v>
       </c>
       <c r="D259" s="19" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="E259" s="34">
         <v>300</v>
@@ -19381,7 +19378,7 @@
         <v>370</v>
       </c>
       <c r="D260" s="19" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="E260" s="34">
         <v>300</v>
@@ -19412,7 +19409,7 @@
         <v>370</v>
       </c>
       <c r="D261" s="19" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="E261" s="34">
         <v>300</v>
@@ -19443,7 +19440,7 @@
         <v>234</v>
       </c>
       <c r="D262" s="19" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="E262" s="34">
         <v>300</v>
@@ -19474,7 +19471,7 @@
         <v>234</v>
       </c>
       <c r="D263" s="19" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="E263" s="34">
         <v>300</v>
@@ -19505,7 +19502,7 @@
         <v>369</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="E264" s="34">
         <v>300</v>
@@ -19536,7 +19533,7 @@
         <v>362</v>
       </c>
       <c r="D265" s="19" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="E265" s="34">
         <v>300</v>
@@ -19567,7 +19564,7 @@
         <v>301</v>
       </c>
       <c r="D266" s="19" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="E266" s="34">
         <v>300</v>
@@ -19590,7 +19587,7 @@
         <v>301</v>
       </c>
       <c r="D267" s="19" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="E267" s="34">
         <v>300</v>
@@ -19621,7 +19618,7 @@
         <v>368</v>
       </c>
       <c r="D268" s="19" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="E268" s="34">
         <v>300</v>
@@ -19652,7 +19649,7 @@
         <v>370</v>
       </c>
       <c r="D269" s="19" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E269" s="34">
         <v>300</v>
@@ -19683,7 +19680,7 @@
         <v>370</v>
       </c>
       <c r="D270" s="19" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E270" s="34">
         <v>300</v>
@@ -19714,7 +19711,7 @@
         <v>395</v>
       </c>
       <c r="D271" s="19" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="E271" s="34">
         <v>300</v>
@@ -19745,7 +19742,7 @@
         <v>338</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="E272" s="34">
         <v>280</v>
@@ -19776,7 +19773,7 @@
         <v>396</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="E273" s="34">
         <v>300</v>
@@ -19807,7 +19804,7 @@
         <v>345</v>
       </c>
       <c r="D274" s="19" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="E274" s="34">
         <v>300</v>
@@ -19838,7 +19835,7 @@
         <v>397</v>
       </c>
       <c r="D275" s="19" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="E275" s="34">
         <v>300</v>
@@ -19869,7 +19866,7 @@
         <v>377</v>
       </c>
       <c r="D276" s="19" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="E276" s="34">
         <v>300</v>
@@ -19900,7 +19897,7 @@
         <v>46</v>
       </c>
       <c r="D277" s="19" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="E277" s="34">
         <v>300</v>
@@ -19931,7 +19928,7 @@
         <v>398</v>
       </c>
       <c r="D278" s="19" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="E278" s="34">
         <v>300</v>
@@ -19962,7 +19959,7 @@
         <v>399</v>
       </c>
       <c r="D279" s="19" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="E279" s="34">
         <v>300</v>
@@ -19993,7 +19990,7 @@
         <v>400</v>
       </c>
       <c r="D280" s="19" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="E280" s="34">
         <v>250</v>
@@ -20020,7 +20017,7 @@
         <v>401</v>
       </c>
       <c r="D281" s="19" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="E281" s="34">
         <v>280</v>
@@ -20047,7 +20044,7 @@
         <v>368</v>
       </c>
       <c r="D282" s="19" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="E282" s="34">
         <v>270</v>
@@ -20074,7 +20071,7 @@
         <v>335</v>
       </c>
       <c r="D283" s="19" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="E283" s="34">
         <v>275</v>
@@ -20101,7 +20098,7 @@
         <v>362</v>
       </c>
       <c r="D284" s="19" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="E284" s="34">
         <v>260</v>
@@ -20128,7 +20125,7 @@
         <v>301</v>
       </c>
       <c r="D285" s="19" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="E285" s="34">
         <v>255</v>
@@ -20155,7 +20152,7 @@
         <v>178</v>
       </c>
       <c r="D286" s="19" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E286" s="34">
         <v>250</v>
@@ -20182,7 +20179,7 @@
         <v>240</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="E287" s="34">
         <v>220</v>
@@ -20209,7 +20206,7 @@
         <v>369</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="E288" s="34">
         <v>255</v>
@@ -20236,7 +20233,7 @@
         <v>234</v>
       </c>
       <c r="D289" s="19" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="E289" s="34">
         <v>230</v>
@@ -20263,7 +20260,7 @@
         <v>93</v>
       </c>
       <c r="D290" s="19" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="E290" s="34">
         <v>220</v>
@@ -20290,7 +20287,7 @@
         <v>92</v>
       </c>
       <c r="D291" s="19" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="E291" s="34">
         <v>230</v>
@@ -20317,7 +20314,7 @@
         <v>365</v>
       </c>
       <c r="D292" s="19" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E292" s="34">
         <v>260</v>
@@ -20344,7 +20341,7 @@
         <v>363</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="E293" s="34">
         <v>265</v>
@@ -20371,7 +20368,7 @@
         <v>186</v>
       </c>
       <c r="D294" s="19" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="E294" s="34">
         <v>230</v>
@@ -20427,7 +20424,7 @@
         <v>94</v>
       </c>
       <c r="D296" s="19" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E296" s="34">
         <v>80</v>
@@ -20458,7 +20455,7 @@
         <v>396</v>
       </c>
       <c r="D297" s="19" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="E297" s="34">
         <v>300</v>
@@ -20489,7 +20486,7 @@
         <v>403</v>
       </c>
       <c r="D298" s="92" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="E298" s="35">
         <v>300</v>
@@ -20520,7 +20517,7 @@
         <v>377</v>
       </c>
       <c r="D299" s="92" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="E299" s="35">
         <v>300</v>
@@ -20551,7 +20548,7 @@
         <v>404</v>
       </c>
       <c r="D300" s="92" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="E300" s="35">
         <v>240</v>
@@ -20578,7 +20575,7 @@
         <v>370</v>
       </c>
       <c r="D301" s="92" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="E301" s="35">
         <v>300</v>
@@ -20609,7 +20606,7 @@
         <v>405</v>
       </c>
       <c r="D302" s="92" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="E302" s="35">
         <v>300</v>
@@ -20640,7 +20637,7 @@
         <v>406</v>
       </c>
       <c r="D303" s="92" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="E303" s="35">
         <v>300</v>
@@ -20671,7 +20668,7 @@
         <v>395</v>
       </c>
       <c r="D304" s="92" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="E304" s="35">
         <v>300</v>
@@ -20731,7 +20728,7 @@
         <v>340</v>
       </c>
       <c r="D306" s="92" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="E306" s="35">
         <v>300</v>
@@ -20762,7 +20759,7 @@
         <v>396</v>
       </c>
       <c r="D307" s="19" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="E307" s="35">
         <v>300</v>
@@ -20793,7 +20790,7 @@
         <v>104</v>
       </c>
       <c r="D308" s="92" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="E308" s="35">
         <v>300</v>
@@ -20824,7 +20821,7 @@
         <v>395</v>
       </c>
       <c r="D309" s="92" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="E309" s="35">
         <v>300</v>
@@ -20855,7 +20852,7 @@
         <v>340</v>
       </c>
       <c r="D310" s="92" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="E310" s="35">
         <v>300</v>
@@ -20886,7 +20883,7 @@
         <v>408</v>
       </c>
       <c r="D311" s="92" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E311" s="35">
         <v>296</v>
@@ -20917,7 +20914,7 @@
         <v>176</v>
       </c>
       <c r="D312" s="19" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="E312" s="35">
         <v>300</v>
@@ -20948,7 +20945,7 @@
         <v>405</v>
       </c>
       <c r="D313" s="92" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="E313" s="35">
         <v>300</v>
@@ -20979,7 +20976,7 @@
         <v>378</v>
       </c>
       <c r="D314" s="51" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="E314" s="35">
         <v>300</v>
@@ -21010,7 +21007,7 @@
         <v>408</v>
       </c>
       <c r="D315" s="92" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
       <c r="E315" s="35">
         <v>296</v>
@@ -21041,7 +21038,7 @@
         <v>338</v>
       </c>
       <c r="D316" s="92" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="E316" s="35">
         <v>280</v>
@@ -21072,7 +21069,7 @@
         <v>431</v>
       </c>
       <c r="D317" s="92" t="s">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="E317" s="35">
         <v>300</v>
@@ -21103,7 +21100,7 @@
         <v>97</v>
       </c>
       <c r="D318" s="92" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="E318" s="53">
         <v>300</v>
@@ -21134,7 +21131,7 @@
         <v>432</v>
       </c>
       <c r="D319" s="92" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="E319" s="53">
         <v>300</v>
@@ -21165,7 +21162,7 @@
         <v>433</v>
       </c>
       <c r="D320" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E320" s="53">
         <v>300</v>
@@ -21196,7 +21193,7 @@
         <v>434</v>
       </c>
       <c r="D321" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E321" s="53">
         <v>300</v>
@@ -21227,7 +21224,7 @@
         <v>299</v>
       </c>
       <c r="D322" s="51" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E322" s="35">
         <v>230</v>
@@ -21254,7 +21251,7 @@
         <v>298</v>
       </c>
       <c r="D323" s="92" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E323" s="35">
         <v>230</v>
@@ -21281,7 +21278,7 @@
         <v>97</v>
       </c>
       <c r="D324" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E324" s="35">
         <v>300</v>
@@ -21312,7 +21309,7 @@
         <v>432</v>
       </c>
       <c r="D325" s="92" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="E325" s="35">
         <v>300</v>
@@ -21343,7 +21340,7 @@
         <v>378</v>
       </c>
       <c r="D326" s="51" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="E326" s="35">
         <v>300</v>
@@ -21374,7 +21371,7 @@
         <v>431</v>
       </c>
       <c r="D327" s="92" t="s">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="E327" s="35">
         <v>300</v>
@@ -21405,7 +21402,7 @@
         <v>435</v>
       </c>
       <c r="D328" s="92" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E328" s="35">
         <v>296</v>
@@ -21436,7 +21433,7 @@
         <v>338</v>
       </c>
       <c r="D329" s="19" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="E329" s="35">
         <v>280</v>
@@ -21467,7 +21464,7 @@
         <v>434</v>
       </c>
       <c r="D330" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E330" s="35">
         <v>300</v>
@@ -21498,7 +21495,7 @@
         <v>433</v>
       </c>
       <c r="D331" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E331" s="35">
         <v>300</v>
@@ -21529,7 +21526,7 @@
         <v>292</v>
       </c>
       <c r="D332" s="19" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="E332" s="35">
         <v>250</v>
@@ -21556,7 +21553,7 @@
         <v>371</v>
       </c>
       <c r="D333" s="92" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E333" s="35">
         <v>300</v>
@@ -21587,7 +21584,7 @@
         <v>100</v>
       </c>
       <c r="D334" s="51" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="E334" s="35">
         <v>300</v>
@@ -21618,7 +21615,7 @@
         <v>431</v>
       </c>
       <c r="D335" s="92" t="s">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="E335" s="35">
         <v>300</v>
@@ -21649,7 +21646,7 @@
         <v>408</v>
       </c>
       <c r="D336" s="92" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E336" s="35">
         <v>296</v>
@@ -21709,7 +21706,7 @@
         <v>97</v>
       </c>
       <c r="D338" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E338" s="35">
         <v>300</v>
@@ -21740,7 +21737,7 @@
         <v>433</v>
       </c>
       <c r="D339" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E339" s="35">
         <v>300</v>
@@ -21771,7 +21768,7 @@
         <v>434</v>
       </c>
       <c r="D340" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E340" s="35">
         <v>300</v>
@@ -21802,7 +21799,7 @@
         <v>437</v>
       </c>
       <c r="D341" s="92" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
       <c r="E341" s="35">
         <v>300</v>
@@ -21825,7 +21822,7 @@
         <v>438</v>
       </c>
       <c r="D342" s="92" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="E342" s="35">
         <v>300</v>
@@ -21848,7 +21845,7 @@
         <v>437</v>
       </c>
       <c r="D343" s="92" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
       <c r="E343" s="35">
         <v>300</v>
@@ -21879,7 +21876,7 @@
         <v>438</v>
       </c>
       <c r="D344" s="92" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="E344" s="35">
         <v>300</v>
@@ -21910,7 +21907,7 @@
         <v>62</v>
       </c>
       <c r="D345" s="92" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="E345" s="35">
         <v>300</v>
@@ -21941,7 +21938,7 @@
         <v>371</v>
       </c>
       <c r="D346" s="92" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E346" s="35">
         <v>300</v>
@@ -21972,7 +21969,7 @@
         <v>180</v>
       </c>
       <c r="D347" s="51" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="E347" s="35">
         <v>80</v>
@@ -22003,7 +22000,7 @@
         <v>408</v>
       </c>
       <c r="D348" s="92" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E348" s="35">
         <v>296</v>
@@ -22034,7 +22031,7 @@
         <v>433</v>
       </c>
       <c r="D349" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E349" s="35">
         <v>300</v>
@@ -22094,7 +22091,7 @@
         <v>405</v>
       </c>
       <c r="D351" s="92" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="E351" s="35">
         <v>300</v>
@@ -22154,7 +22151,7 @@
         <v>100</v>
       </c>
       <c r="D353" s="51" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="E353" s="35">
         <v>300</v>
@@ -22243,7 +22240,7 @@
         <v>97</v>
       </c>
       <c r="D356" s="19" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E356" s="35">
         <v>300</v>
@@ -22272,7 +22269,7 @@
         <v>372</v>
       </c>
       <c r="D357" s="92" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="E357" s="35">
         <v>300</v>
@@ -22303,7 +22300,7 @@
         <v>98</v>
       </c>
       <c r="D358" s="92" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="E358" s="35">
         <v>300</v>
@@ -22326,7 +22323,7 @@
         <v>37</v>
       </c>
       <c r="D359" s="19" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E359" s="35">
         <v>300</v>
@@ -22378,7 +22375,7 @@
         <v>37</v>
       </c>
       <c r="D361" s="19" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E361" s="35">
         <v>300</v>
@@ -22438,7 +22435,7 @@
         <v>371</v>
       </c>
       <c r="D363" s="92" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E363" s="35">
         <v>300</v>
@@ -22469,7 +22466,7 @@
         <v>371</v>
       </c>
       <c r="D364" s="92" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E364" s="35">
         <v>300</v>
@@ -22556,7 +22553,7 @@
         <v>375</v>
       </c>
       <c r="D367" s="92" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="E367" s="35">
         <v>300</v>
@@ -22614,7 +22611,7 @@
         <v>424</v>
       </c>
       <c r="D369" s="51" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="E369" s="35">
         <v>300</v>
@@ -22645,7 +22642,7 @@
         <v>424</v>
       </c>
       <c r="D370" s="51" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="E370" s="35">
         <v>300</v>
@@ -22676,7 +22673,7 @@
         <v>344</v>
       </c>
       <c r="D371" s="92" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="E371" s="35">
         <v>300</v>
@@ -22707,7 +22704,7 @@
         <v>344</v>
       </c>
       <c r="D372" s="92" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="E372" s="35">
         <v>300</v>
@@ -22738,7 +22735,7 @@
         <v>37</v>
       </c>
       <c r="D373" s="19" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E373" s="35">
         <v>300</v>
@@ -22769,7 +22766,7 @@
         <v>37</v>
       </c>
       <c r="D374" s="19" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E374" s="35">
         <v>300</v>
@@ -22800,7 +22797,7 @@
         <v>98</v>
       </c>
       <c r="D375" s="92" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="E375" s="35">
         <v>300</v>
@@ -22831,7 +22828,7 @@
         <v>98</v>
       </c>
       <c r="D376" s="92" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="E376" s="35">
         <v>300</v>
@@ -22862,7 +22859,7 @@
         <v>438</v>
       </c>
       <c r="D377" s="51" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="E377" s="35">
         <v>300</v>
@@ -22893,7 +22890,7 @@
         <v>438</v>
       </c>
       <c r="D378" s="51" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="E378" s="35">
         <v>300</v>
@@ -22924,7 +22921,7 @@
         <v>437</v>
       </c>
       <c r="D379" s="92" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="E379" s="35">
         <v>300</v>
@@ -22955,7 +22952,7 @@
         <v>437</v>
       </c>
       <c r="D380" s="92" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
       <c r="E380" s="35">
         <v>300</v>
@@ -22986,7 +22983,7 @@
         <v>458</v>
       </c>
       <c r="D381" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E381" s="35">
         <v>300</v>
@@ -23017,7 +23014,7 @@
         <v>458</v>
       </c>
       <c r="D382" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E382" s="35">
         <v>300</v>
@@ -23046,7 +23043,7 @@
         <v>458</v>
       </c>
       <c r="D383" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E383" s="35">
         <v>300</v>
@@ -23077,7 +23074,7 @@
         <v>433</v>
       </c>
       <c r="D384" s="92" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E384" s="35">
         <v>300</v>
@@ -23108,7 +23105,7 @@
         <v>394</v>
       </c>
       <c r="D385" s="92" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="E385" s="35">
         <v>265</v>
@@ -23135,7 +23132,7 @@
         <v>379</v>
       </c>
       <c r="D386" s="92" t="s">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="E386" s="35">
         <v>260</v>
@@ -23162,7 +23159,7 @@
         <v>378</v>
       </c>
       <c r="D387" s="51" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="E387" s="35">
         <v>255</v>
@@ -23189,7 +23186,7 @@
         <v>338</v>
       </c>
       <c r="D388" s="92" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="E388" s="35">
         <v>215</v>
@@ -23216,7 +23213,7 @@
         <v>459</v>
       </c>
       <c r="D389" s="92" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="E389" s="35">
         <v>280</v>
@@ -23243,7 +23240,7 @@
         <v>460</v>
       </c>
       <c r="D390" s="92" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
       <c r="E390" s="35">
         <v>280</v>
@@ -23270,7 +23267,7 @@
         <v>100</v>
       </c>
       <c r="D391" s="92" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="E391" s="35">
         <v>280</v>
@@ -23297,7 +23294,7 @@
         <v>373</v>
       </c>
       <c r="D392" s="92" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="E392" s="35">
         <v>300</v>
@@ -23328,7 +23325,7 @@
         <v>495</v>
       </c>
       <c r="D393" s="18" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="E393" s="35">
         <v>300</v>
@@ -23359,7 +23356,7 @@
         <v>374</v>
       </c>
       <c r="D394" s="18" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="E394" s="35">
         <v>300</v>
@@ -23390,7 +23387,7 @@
         <v>498</v>
       </c>
       <c r="D395" s="18" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="E395" s="35">
         <v>300</v>
@@ -23421,7 +23418,7 @@
         <v>458</v>
       </c>
       <c r="D396" s="51" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="E396" s="35">
         <v>300</v>
@@ -23452,7 +23449,7 @@
         <v>408</v>
       </c>
       <c r="D397" s="92" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E397" s="35">
         <v>240</v>
@@ -23479,7 +23476,7 @@
         <v>371</v>
       </c>
       <c r="D398" s="92" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E398" s="35">
         <v>220</v>
@@ -23506,7 +23503,7 @@
         <v>424</v>
       </c>
       <c r="D399" s="51" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="E399" s="35">
         <v>270</v>
@@ -23533,7 +23530,7 @@
         <v>375</v>
       </c>
       <c r="D400" s="92" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="E400" s="35">
         <v>250</v>
@@ -23560,7 +23557,7 @@
         <v>372</v>
       </c>
       <c r="D401" s="92" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="E401" s="35">
         <v>255</v>
@@ -23587,7 +23584,7 @@
         <v>344</v>
       </c>
       <c r="D402" s="92" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="E402" s="35">
         <v>270</v>
@@ -23639,7 +23636,7 @@
         <v>341</v>
       </c>
       <c r="D404" s="51" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="E404" s="35">
         <v>300</v>
@@ -23670,7 +23667,7 @@
         <v>495</v>
       </c>
       <c r="D405" s="51" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="E405" s="35">
         <v>300</v>
@@ -23701,7 +23698,7 @@
         <v>498</v>
       </c>
       <c r="D406" s="51" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="E406" s="35">
         <v>300</v>
@@ -23732,7 +23729,7 @@
         <v>180</v>
       </c>
       <c r="D407" s="51" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="E407" s="35">
         <v>80</v>
@@ -23763,7 +23760,7 @@
         <v>91</v>
       </c>
       <c r="D408" s="51" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="E408" s="35">
         <v>300</v>
@@ -23794,7 +23791,7 @@
         <v>509</v>
       </c>
       <c r="D409" s="51" t="s">
-        <v>961</v>
+        <v>511</v>
       </c>
       <c r="E409" s="35">
         <v>300</v>
@@ -23825,7 +23822,7 @@
         <v>510</v>
       </c>
       <c r="D410" s="51" t="s">
-        <v>961</v>
+        <v>511</v>
       </c>
       <c r="E410" s="35">
         <v>300</v>
@@ -23856,7 +23853,7 @@
         <v>512</v>
       </c>
       <c r="D411" s="51" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="E411" s="35">
         <v>300</v>
@@ -23887,7 +23884,7 @@
         <v>513</v>
       </c>
       <c r="D412" s="51" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="E412" s="35">
         <v>300</v>
@@ -23918,7 +23915,7 @@
         <v>514</v>
       </c>
       <c r="D413" s="51" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="E413" s="35">
         <v>300</v>
@@ -23949,7 +23946,7 @@
         <v>515</v>
       </c>
       <c r="D414" s="51" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="E414" s="35">
         <v>300</v>
@@ -23980,7 +23977,7 @@
         <v>283</v>
       </c>
       <c r="D415" s="51" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="E415" s="35">
         <v>300</v>
@@ -24011,7 +24008,7 @@
         <v>381</v>
       </c>
       <c r="D416" s="51" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="E416" s="35">
         <v>300</v>
@@ -24042,7 +24039,7 @@
         <v>542</v>
       </c>
       <c r="D417" s="51" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="E417" s="35">
         <v>300</v>
@@ -24073,7 +24070,7 @@
         <v>515</v>
       </c>
       <c r="D418" s="51" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="E418" s="35">
         <v>300</v>
@@ -24104,7 +24101,7 @@
         <v>514</v>
       </c>
       <c r="D419" s="51" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="E419" s="35">
         <v>300</v>
@@ -24135,7 +24132,7 @@
         <v>512</v>
       </c>
       <c r="D420" s="51" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="E420" s="35">
         <v>300</v>
@@ -24166,7 +24163,7 @@
         <v>513</v>
       </c>
       <c r="D421" s="51" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="E421" s="35">
         <v>300</v>
@@ -24197,7 +24194,7 @@
         <v>509</v>
       </c>
       <c r="D422" s="51" t="s">
-        <v>961</v>
+        <v>511</v>
       </c>
       <c r="E422" s="35">
         <v>255</v>
@@ -24224,7 +24221,7 @@
         <v>91</v>
       </c>
       <c r="D423" s="51" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="E423" s="35">
         <v>260</v>
@@ -24251,7 +24248,7 @@
         <v>495</v>
       </c>
       <c r="D424" s="18" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="E424" s="35">
         <v>260</v>
@@ -24278,7 +24275,7 @@
         <v>341</v>
       </c>
       <c r="D425" s="51" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="E425" s="35">
         <v>270</v>
@@ -24305,7 +24302,7 @@
         <v>373</v>
       </c>
       <c r="D426" s="92" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="E426" s="35">
         <v>250</v>
@@ -24382,7 +24379,7 @@
         <v>498</v>
       </c>
       <c r="D429" s="18" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="E429" s="35">
         <v>250</v>
@@ -24409,7 +24406,7 @@
         <v>347</v>
       </c>
       <c r="D430" s="51" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="E430" s="35">
         <v>300</v>
@@ -24440,7 +24437,7 @@
         <v>513</v>
       </c>
       <c r="D431" s="51" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="E431" s="35">
         <v>300</v>
@@ -24471,7 +24468,7 @@
         <v>512</v>
       </c>
       <c r="D432" s="51" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="E432" s="35">
         <v>300</v>
@@ -24502,7 +24499,7 @@
         <v>458</v>
       </c>
       <c r="D433" s="51" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="E433" s="35">
         <v>300</v>
@@ -24533,7 +24530,7 @@
         <v>514</v>
       </c>
       <c r="D434" s="51" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="E434" s="35">
         <v>300</v>
@@ -24564,7 +24561,7 @@
         <v>545</v>
       </c>
       <c r="D435" s="51" t="s">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="E435" s="35">
         <v>300</v>
@@ -24595,7 +24592,7 @@
         <v>426</v>
       </c>
       <c r="D436" s="51" t="s">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="E436" s="35">
         <v>300</v>
@@ -24626,7 +24623,7 @@
         <v>546</v>
       </c>
       <c r="D437" s="51" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="E437" s="35">
         <v>300</v>
@@ -24657,7 +24654,7 @@
         <v>455</v>
       </c>
       <c r="D438" s="51" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="E438" s="35">
         <v>300</v>
@@ -24688,7 +24685,7 @@
         <v>542</v>
       </c>
       <c r="D439" s="51" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="E439" s="35">
         <v>300</v>
@@ -24719,7 +24716,7 @@
         <v>291</v>
       </c>
       <c r="D440" s="19" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E440" s="35">
         <v>41</v>
@@ -24746,7 +24743,7 @@
         <v>372</v>
       </c>
       <c r="D441" s="51" t="s">
-        <v>974</v>
+        <v>993</v>
       </c>
       <c r="E441" s="35">
         <v>300</v>
@@ -24777,7 +24774,7 @@
         <v>355</v>
       </c>
       <c r="D442" s="51" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="E442" s="35">
         <v>300</v>
@@ -24808,7 +24805,7 @@
         <v>395</v>
       </c>
       <c r="D443" s="51" t="s">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="E443" s="35">
         <v>300</v>
@@ -24839,7 +24836,7 @@
         <v>583</v>
       </c>
       <c r="D444" s="51" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="E444" s="35">
         <v>300</v>
@@ -24870,7 +24867,7 @@
         <v>584</v>
       </c>
       <c r="D445" s="51" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="E445" s="35">
         <v>300</v>
@@ -24901,7 +24898,7 @@
         <v>315</v>
       </c>
       <c r="D446" s="51" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="E446" s="35">
         <v>300</v>
@@ -24932,7 +24929,7 @@
         <v>307</v>
       </c>
       <c r="D447" s="51" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="E447" s="35">
         <v>300</v>
@@ -25288,7 +25285,7 @@
         <v>291</v>
       </c>
       <c r="D461" s="51" t="s">
-        <v>980</v>
+        <v>999</v>
       </c>
       <c r="E461" s="35">
         <v>300</v>
@@ -25319,7 +25316,7 @@
         <v>584</v>
       </c>
       <c r="D462" s="51" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="E462" s="35">
         <v>300</v>
@@ -25350,7 +25347,7 @@
         <v>583</v>
       </c>
       <c r="D463" s="51" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="E463" s="35">
         <v>300</v>
@@ -25381,7 +25378,7 @@
         <v>307</v>
       </c>
       <c r="D464" s="51" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="E464" s="35">
         <v>300</v>
@@ -25412,7 +25409,7 @@
         <v>315</v>
       </c>
       <c r="D465" s="51" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="E465" s="35">
         <v>300</v>
@@ -25443,7 +25440,7 @@
         <v>371</v>
       </c>
       <c r="D466" s="51" t="s">
-        <v>982</v>
+        <v>1001</v>
       </c>
       <c r="E466" s="35">
         <v>300</v>
@@ -25474,7 +25471,7 @@
         <v>278</v>
       </c>
       <c r="D467" s="51" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="E467" s="35">
         <v>80</v>
@@ -25555,7 +25552,7 @@
         <v>394</v>
       </c>
       <c r="D470" s="51" t="s">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="E470" s="35">
         <v>300</v>
@@ -25603,7 +25600,7 @@
         <v>600</v>
       </c>
       <c r="D472" s="51" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="E472" s="35">
         <v>300</v>
@@ -25651,7 +25648,7 @@
         <v>601</v>
       </c>
       <c r="D474" s="51" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="E474" s="35">
         <v>300</v>
@@ -30914,12 +30911,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -30927,6 +30918,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -30940,8 +30937,8 @@
   <dimension ref="A1:L1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P187" sqref="P187"/>
+      <pane ySplit="3" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O442" sqref="O442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30962,17 +30959,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="45" t="s">
         <v>16</v>
       </c>
@@ -30997,10 +30994,10 @@
       <c r="D2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="110" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="98" t="s">
@@ -31025,8 +31022,8 @@
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="99"/>
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
@@ -31049,7 +31046,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E4" s="25">
         <v>165</v>
@@ -31081,7 +31078,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E5" s="25">
         <v>255</v>
@@ -31113,7 +31110,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E6" s="25">
         <v>255</v>
@@ -31145,7 +31142,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E7" s="25">
         <v>43</v>
@@ -31177,7 +31174,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E8" s="25">
         <v>220</v>
@@ -31209,13 +31206,13 @@
         <v>80</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E9" s="25">
         <v>43</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G9" s="26">
         <v>70</v>
@@ -31241,13 +31238,13 @@
         <v>78</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="25">
         <v>255</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G10" s="26">
         <v>60</v>
@@ -31273,13 +31270,13 @@
         <v>81</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E11" s="25">
         <v>220</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G11" s="26">
         <v>180</v>
@@ -31305,13 +31302,13 @@
         <v>77</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E12" s="25">
         <v>165</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G12" s="26">
         <v>90</v>
@@ -31393,7 +31390,7 @@
         <v>90</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E15" s="25">
         <v>205</v>
@@ -31503,13 +31500,13 @@
         <v>87</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E19" s="25">
         <v>265</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>988</v>
+        <v>866</v>
       </c>
       <c r="G19" s="26">
         <v>85</v>
@@ -31535,7 +31532,7 @@
         <v>78</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E20" s="25">
         <v>255</v>
@@ -31567,7 +31564,7 @@
         <v>77</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E21" s="25">
         <v>165</v>
@@ -31597,7 +31594,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>1064</v>
+        <v>1013</v>
       </c>
       <c r="E22" s="25">
         <v>220</v>
@@ -31629,7 +31626,7 @@
         <v>88</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="E23" s="25">
         <v>255</v>
@@ -31693,7 +31690,7 @@
         <v>185</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E25" s="25">
         <v>230</v>
@@ -31727,7 +31724,7 @@
         <v>186</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E26" s="25">
         <v>260</v>
@@ -31761,13 +31758,13 @@
         <v>187</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E27" s="25">
         <v>240</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>989</v>
+        <v>867</v>
       </c>
       <c r="G27" s="16">
         <v>65</v>
@@ -31801,7 +31798,7 @@
         <v>200</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>989</v>
+        <v>867</v>
       </c>
       <c r="G28" s="16">
         <v>175</v>
@@ -31829,7 +31826,7 @@
         <v>187</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E29" s="25">
         <v>240</v>
@@ -31903,7 +31900,7 @@
         <v>200</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>990</v>
+        <v>868</v>
       </c>
       <c r="G31" s="16">
         <v>150</v>
@@ -32005,7 +32002,7 @@
         <v>250</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>991</v>
+        <v>869</v>
       </c>
       <c r="G34" s="16">
         <v>120</v>
@@ -32039,7 +32036,7 @@
         <v>260</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="G35" s="26">
         <v>115</v>
@@ -32073,7 +32070,7 @@
         <v>255</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="G36" s="26">
         <v>260</v>
@@ -32107,7 +32104,7 @@
         <v>260</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G37" s="26">
         <v>200</v>
@@ -32141,7 +32138,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G38" s="26">
         <v>130</v>
@@ -32277,7 +32274,7 @@
         <v>260</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>993</v>
+        <v>871</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="42"/>
@@ -32303,7 +32300,7 @@
         <v>130</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>993</v>
+        <v>871</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="42"/>
@@ -32329,7 +32326,7 @@
         <v>230</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>993</v>
+        <v>871</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="42"/>
@@ -32355,7 +32352,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>993</v>
+        <v>871</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="42"/>
@@ -32381,7 +32378,7 @@
         <v>255</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>994</v>
+        <v>872</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="42"/>
@@ -32407,7 +32404,7 @@
         <v>250</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>994</v>
+        <v>872</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="42"/>
@@ -32435,7 +32432,7 @@
         <v>260</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>994</v>
+        <v>872</v>
       </c>
       <c r="G49" s="16">
         <v>100</v>
@@ -32537,7 +32534,7 @@
         <v>165</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>995</v>
+        <v>873</v>
       </c>
       <c r="G52" s="16">
         <v>145</v>
@@ -32571,7 +32568,7 @@
         <v>275</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>995</v>
+        <v>873</v>
       </c>
       <c r="G53" s="16">
         <v>50</v>
@@ -32775,7 +32772,7 @@
         <v>240</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>996</v>
+        <v>874</v>
       </c>
       <c r="G60" s="16">
         <v>240</v>
@@ -32809,7 +32806,7 @@
         <v>240</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>991</v>
+        <v>869</v>
       </c>
       <c r="G61" s="16">
         <v>280</v>
@@ -32837,13 +32834,13 @@
         <v>253</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="E62" s="34">
         <v>210</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G62" s="16">
         <v>280</v>
@@ -32897,7 +32894,7 @@
         <v>282</v>
       </c>
       <c r="D64" s="93" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E64" s="34">
         <v>260</v>
@@ -32931,13 +32928,13 @@
         <v>247</v>
       </c>
       <c r="D65" s="93" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E65" s="34">
         <v>240</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>997</v>
+        <v>875</v>
       </c>
       <c r="G65" s="16">
         <v>160</v>
@@ -32971,7 +32968,7 @@
         <v>210</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>997</v>
+        <v>875</v>
       </c>
       <c r="G66" s="16">
         <v>260</v>
@@ -32999,7 +32996,7 @@
         <v>248</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E67" s="34">
         <v>275</v>
@@ -33067,7 +33064,7 @@
         <v>282</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E69" s="34">
         <v>260</v>
@@ -33167,7 +33164,7 @@
         <v>285</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E72" s="34">
         <v>265</v>
@@ -33235,13 +33232,13 @@
         <v>286</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E74" s="34">
         <v>170</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>998</v>
+        <v>876</v>
       </c>
       <c r="G74" s="16">
         <v>220</v>
@@ -33275,7 +33272,7 @@
         <v>240</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>998</v>
+        <v>876</v>
       </c>
       <c r="G75" s="16">
         <v>240</v>
@@ -33307,7 +33304,7 @@
         <v>255</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>999</v>
+        <v>877</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -33335,7 +33332,7 @@
         <v>260</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>999</v>
+        <v>877</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -33363,7 +33360,7 @@
         <v>235</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>999</v>
+        <v>877</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -33391,7 +33388,7 @@
         <v>160</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>1000</v>
+        <v>878</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
@@ -33419,7 +33416,7 @@
         <v>235</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>1000</v>
+        <v>878</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
@@ -33443,7 +33440,7 @@
         <v>285</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E81" s="34">
         <v>265</v>
@@ -33483,7 +33480,7 @@
         <v>240</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>996</v>
+        <v>874</v>
       </c>
       <c r="G82" s="16">
         <v>100</v>
@@ -33511,7 +33508,7 @@
         <v>290</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E83" s="34">
         <v>250</v>
@@ -33543,13 +33540,13 @@
         <v>321</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E84" s="34">
         <v>275</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G84" s="16">
         <v>175</v>
@@ -33577,13 +33574,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E85" s="34">
         <v>170</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G85" s="16">
         <v>160</v>
@@ -33611,13 +33608,13 @@
         <v>323</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E86" s="34">
         <v>250</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G86" s="16">
         <v>180</v>
@@ -33645,7 +33642,7 @@
         <v>324</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E87" s="34">
         <v>270</v>
@@ -33679,7 +33676,7 @@
         <v>325</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E88" s="34">
         <v>250</v>
@@ -33713,7 +33710,7 @@
         <v>326</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E89" s="34">
         <v>275</v>
@@ -33747,7 +33744,7 @@
         <v>324</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E90" s="34">
         <v>270</v>
@@ -33781,7 +33778,7 @@
         <v>244</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E91" s="34">
         <v>250</v>
@@ -33815,7 +33812,7 @@
         <v>323</v>
       </c>
       <c r="D92" s="93" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E92" s="34">
         <v>250</v>
@@ -33879,7 +33876,7 @@
         <v>285</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E94" s="34">
         <v>245</v>
@@ -33915,7 +33912,7 @@
         <v>240</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>990</v>
+        <v>868</v>
       </c>
       <c r="G95" s="16">
         <v>38</v>
@@ -33939,7 +33936,7 @@
         <v>327</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E96" s="34">
         <v>240</v>
@@ -33999,7 +33996,7 @@
         <v>80</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E98" s="34">
         <v>43</v>
@@ -34029,7 +34026,7 @@
         <v>135</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E99" s="34">
         <v>41</v>
@@ -34089,13 +34086,13 @@
         <v>325</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E101" s="34">
         <v>250</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>1002</v>
+        <v>880</v>
       </c>
       <c r="G101" s="16">
         <v>60</v>
@@ -34123,13 +34120,13 @@
         <v>326</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E102" s="34">
         <v>275</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>1002</v>
+        <v>880</v>
       </c>
       <c r="G102" s="16">
         <v>140</v>
@@ -34157,7 +34154,7 @@
         <v>328</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E103" s="34">
         <v>250</v>
@@ -34191,7 +34188,7 @@
         <v>324</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E104" s="34">
         <v>270</v>
@@ -34225,7 +34222,7 @@
         <v>324</v>
       </c>
       <c r="D105" s="93" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E105" s="34">
         <v>270</v>
@@ -34259,7 +34256,7 @@
         <v>328</v>
       </c>
       <c r="D106" s="93" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E106" s="34">
         <v>250</v>
@@ -34293,7 +34290,7 @@
         <v>326</v>
       </c>
       <c r="D107" s="93" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E107" s="34">
         <v>275</v>
@@ -34327,7 +34324,7 @@
         <v>330</v>
       </c>
       <c r="D108" s="93" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="E108" s="34">
         <v>240</v>
@@ -34361,7 +34358,7 @@
         <v>68</v>
       </c>
       <c r="D109" s="93" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E109" s="34">
         <v>255</v>
@@ -34395,7 +34392,7 @@
         <v>331</v>
       </c>
       <c r="D110" s="93" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E110" s="34">
         <v>220</v>
@@ -34429,7 +34426,7 @@
         <v>331</v>
       </c>
       <c r="D111" s="93" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E111" s="34">
         <v>220</v>
@@ -34463,7 +34460,7 @@
         <v>68</v>
       </c>
       <c r="D112" s="93" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E112" s="34">
         <v>255</v>
@@ -34497,7 +34494,7 @@
         <v>326</v>
       </c>
       <c r="D113" s="93" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E113" s="34">
         <v>275</v>
@@ -34531,7 +34528,7 @@
         <v>51</v>
       </c>
       <c r="D114" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E114" s="34">
         <v>275</v>
@@ -34565,7 +34562,7 @@
         <v>331</v>
       </c>
       <c r="D115" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E115" s="34">
         <v>220</v>
@@ -34599,7 +34596,7 @@
         <v>68</v>
       </c>
       <c r="D116" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E116" s="34">
         <v>255</v>
@@ -34633,7 +34630,7 @@
         <v>51</v>
       </c>
       <c r="D117" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E117" s="34">
         <v>275</v>
@@ -34667,7 +34664,7 @@
         <v>357</v>
       </c>
       <c r="D118" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E118" s="34">
         <v>275</v>
@@ -34699,7 +34696,7 @@
         <v>325</v>
       </c>
       <c r="D119" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E119" s="34">
         <v>235</v>
@@ -34729,13 +34726,13 @@
         <v>358</v>
       </c>
       <c r="D120" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E120" s="34">
         <v>220</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>999</v>
+        <v>877</v>
       </c>
       <c r="G120" s="16">
         <v>46</v>
@@ -34759,7 +34756,7 @@
         <v>331</v>
       </c>
       <c r="D121" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E121" s="34">
         <v>220</v>
@@ -34793,7 +34790,7 @@
         <v>51</v>
       </c>
       <c r="D122" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E122" s="34">
         <v>275</v>
@@ -34827,7 +34824,7 @@
         <v>68</v>
       </c>
       <c r="D123" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E123" s="34">
         <v>255</v>
@@ -34861,13 +34858,13 @@
         <v>359</v>
       </c>
       <c r="D124" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E124" s="34">
         <v>240</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>1003</v>
+        <v>881</v>
       </c>
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
@@ -34889,13 +34886,13 @@
         <v>324</v>
       </c>
       <c r="D125" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E125" s="34">
         <v>250</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>1003</v>
+        <v>881</v>
       </c>
       <c r="G125" s="16"/>
       <c r="H125" s="16"/>
@@ -34917,13 +34914,13 @@
         <v>331</v>
       </c>
       <c r="D126" s="94" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E126" s="34">
         <v>220</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G126" s="16">
         <v>150</v>
@@ -34951,7 +34948,7 @@
         <v>69</v>
       </c>
       <c r="D127" s="94" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E127" s="34">
         <v>255</v>
@@ -34975,13 +34972,13 @@
         <v>69</v>
       </c>
       <c r="D128" s="93" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E128" s="34">
         <v>255</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G128" s="16">
         <v>160</v>
@@ -35009,7 +35006,7 @@
         <v>360</v>
       </c>
       <c r="D129" s="93" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E129" s="34">
         <v>250</v>
@@ -35033,13 +35030,13 @@
         <v>361</v>
       </c>
       <c r="D130" s="93" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E130" s="34">
         <v>250</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G130" s="16">
         <v>115</v>
@@ -35067,13 +35064,13 @@
         <v>69</v>
       </c>
       <c r="D131" s="93" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E131" s="34">
         <v>255</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G131" s="16">
         <v>60</v>
@@ -35101,13 +35098,13 @@
         <v>409</v>
       </c>
       <c r="D132" s="93" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="E132" s="34">
         <v>270</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G132" s="16">
         <v>180</v>
@@ -35135,13 +35132,13 @@
         <v>331</v>
       </c>
       <c r="D133" s="93" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E133" s="34">
         <v>220</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G133" s="16">
         <v>105</v>
@@ -35169,13 +35166,13 @@
         <v>410</v>
       </c>
       <c r="D134" s="93" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E134" s="34">
         <v>250</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G134" s="16">
         <v>85</v>
@@ -35203,7 +35200,7 @@
         <v>326</v>
       </c>
       <c r="D135" s="93" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E135" s="34">
         <v>210</v>
@@ -35233,7 +35230,7 @@
         <v>98</v>
       </c>
       <c r="D136" s="93" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E136" s="34">
         <v>260</v>
@@ -35263,7 +35260,7 @@
         <v>328</v>
       </c>
       <c r="D137" s="93" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E137" s="34">
         <v>250</v>
@@ -35293,7 +35290,7 @@
         <v>213</v>
       </c>
       <c r="D138" s="93" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="E138" s="34">
         <v>220</v>
@@ -35323,7 +35320,7 @@
         <v>330</v>
       </c>
       <c r="D139" s="93" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="E139" s="34">
         <v>220</v>
@@ -35353,7 +35350,7 @@
         <v>68</v>
       </c>
       <c r="D140" s="93" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E140" s="34">
         <v>210</v>
@@ -35409,7 +35406,7 @@
         <v>90</v>
       </c>
       <c r="D142" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E142" s="34">
         <v>43</v>
@@ -35443,7 +35440,7 @@
         <v>411</v>
       </c>
       <c r="D143" s="93" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E143" s="34">
         <v>260</v>
@@ -35477,7 +35474,7 @@
         <v>56</v>
       </c>
       <c r="D144" s="93" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E144" s="34">
         <v>265</v>
@@ -35511,7 +35508,7 @@
         <v>90</v>
       </c>
       <c r="D145" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E145" s="34">
         <v>43</v>
@@ -35545,7 +35542,7 @@
         <v>38</v>
       </c>
       <c r="D146" s="93" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E146" s="34">
         <v>255</v>
@@ -35579,7 +35576,7 @@
         <v>412</v>
       </c>
       <c r="D147" s="93" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E147" s="34">
         <v>250</v>
@@ -35613,7 +35610,7 @@
         <v>36</v>
       </c>
       <c r="D148" s="93" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E148" s="34">
         <v>250</v>
@@ -35647,7 +35644,7 @@
         <v>63</v>
       </c>
       <c r="D149" s="93" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E149" s="34">
         <v>255</v>
@@ -35681,7 +35678,7 @@
         <v>63</v>
       </c>
       <c r="D150" s="93" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E150" s="34">
         <v>255</v>
@@ -35747,7 +35744,7 @@
         <v>412</v>
       </c>
       <c r="D152" s="93" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E152" s="34">
         <v>250</v>
@@ -35781,7 +35778,7 @@
         <v>56</v>
       </c>
       <c r="D153" s="93" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E153" s="34">
         <v>265</v>
@@ -35815,7 +35812,7 @@
         <v>411</v>
       </c>
       <c r="D154" s="93" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E154" s="34">
         <v>260</v>
@@ -35853,7 +35850,7 @@
         <v>255</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G155" s="16">
         <v>75</v>
@@ -35881,13 +35878,13 @@
         <v>90</v>
       </c>
       <c r="D156" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E156" s="34">
         <v>43</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G156" s="16">
         <v>100</v>
@@ -35915,13 +35912,13 @@
         <v>57</v>
       </c>
       <c r="D157" s="93" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E157" s="34">
         <v>265</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G157" s="16">
         <v>160</v>
@@ -35949,13 +35946,13 @@
         <v>90</v>
       </c>
       <c r="D158" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E158" s="34">
         <v>43</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G158" s="16">
         <v>80</v>
@@ -35983,7 +35980,7 @@
         <v>430</v>
       </c>
       <c r="D159" s="93" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E159" s="34">
         <v>250</v>
@@ -36015,13 +36012,13 @@
         <v>64</v>
       </c>
       <c r="D160" s="93" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E160" s="34">
         <v>260</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>1004</v>
+        <v>882</v>
       </c>
       <c r="G160" s="16">
         <v>160</v>
@@ -36049,7 +36046,7 @@
         <v>412</v>
       </c>
       <c r="D161" s="93" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E161" s="34">
         <v>250</v>
@@ -36083,13 +36080,13 @@
         <v>411</v>
       </c>
       <c r="D162" s="93" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E162" s="34">
         <v>260</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>1005</v>
+        <v>883</v>
       </c>
       <c r="G162" s="16">
         <v>120</v>
@@ -36117,7 +36114,7 @@
         <v>90</v>
       </c>
       <c r="D163" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E163" s="34">
         <v>43</v>
@@ -36151,7 +36148,7 @@
         <v>412</v>
       </c>
       <c r="D164" s="93" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E164" s="34">
         <v>250</v>
@@ -36185,7 +36182,7 @@
         <v>430</v>
       </c>
       <c r="D165" s="93" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E165" s="34">
         <v>250</v>
@@ -36219,7 +36216,7 @@
         <v>57</v>
       </c>
       <c r="D166" s="93" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E166" s="34">
         <v>265</v>
@@ -36253,7 +36250,7 @@
         <v>411</v>
       </c>
       <c r="D167" s="93" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E167" s="34">
         <v>260</v>
@@ -36287,7 +36284,7 @@
         <v>430</v>
       </c>
       <c r="D168" s="93" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E168" s="34">
         <v>250</v>
@@ -36321,7 +36318,7 @@
         <v>411</v>
       </c>
       <c r="D169" s="93" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E169" s="34">
         <v>260</v>
@@ -36355,7 +36352,7 @@
         <v>72</v>
       </c>
       <c r="D170" s="93" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E170" s="34">
         <v>255</v>
@@ -36389,7 +36386,7 @@
         <v>65</v>
       </c>
       <c r="D171" s="93" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E171" s="34">
         <v>260</v>
@@ -36423,7 +36420,7 @@
         <v>300</v>
       </c>
       <c r="D172" s="93" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E172" s="34">
         <v>260</v>
@@ -36457,7 +36454,7 @@
         <v>90</v>
       </c>
       <c r="D173" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E173" s="34">
         <v>43</v>
@@ -36491,7 +36488,7 @@
         <v>90</v>
       </c>
       <c r="D174" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E174" s="34">
         <v>43</v>
@@ -36525,7 +36522,7 @@
         <v>430</v>
       </c>
       <c r="D175" s="93" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E175" s="34">
         <v>250</v>
@@ -36559,7 +36556,7 @@
         <v>40</v>
       </c>
       <c r="D176" s="93" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E176" s="34">
         <v>270</v>
@@ -36625,13 +36622,13 @@
         <v>65</v>
       </c>
       <c r="D178" s="93" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E178" s="34">
         <v>260</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G178" s="16">
         <v>160</v>
@@ -36659,13 +36656,13 @@
         <v>72</v>
       </c>
       <c r="D179" s="93" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E179" s="34">
         <v>255</v>
       </c>
       <c r="F179" s="21" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="G179" s="16">
         <v>80</v>
@@ -36693,13 +36690,13 @@
         <v>430</v>
       </c>
       <c r="D180" s="93" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E180" s="34">
         <v>250</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>1006</v>
+        <v>884</v>
       </c>
       <c r="G180" s="16">
         <v>115</v>
@@ -36727,13 +36724,13 @@
         <v>65</v>
       </c>
       <c r="D181" s="93" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E181" s="34">
         <v>260</v>
       </c>
       <c r="F181" s="21" t="s">
-        <v>1006</v>
+        <v>884</v>
       </c>
       <c r="G181" s="16">
         <v>75</v>
@@ -36765,7 +36762,7 @@
         <v>260</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>1006</v>
+        <v>884</v>
       </c>
       <c r="G182" s="16">
         <v>100</v>
@@ -36793,13 +36790,13 @@
         <v>72</v>
       </c>
       <c r="D183" s="93" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E183" s="34">
         <v>255</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G183" s="16">
         <v>60</v>
@@ -36827,13 +36824,13 @@
         <v>40</v>
       </c>
       <c r="D184" s="93" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E184" s="34">
         <v>270</v>
       </c>
       <c r="F184" s="36" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G184" s="16">
         <v>125</v>
@@ -36861,13 +36858,13 @@
         <v>90</v>
       </c>
       <c r="D185" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E185" s="34">
         <v>43</v>
       </c>
       <c r="F185" s="36" t="s">
-        <v>1001</v>
+        <v>879</v>
       </c>
       <c r="G185" s="16">
         <v>60</v>
@@ -36895,7 +36892,7 @@
         <v>63</v>
       </c>
       <c r="D186" s="93" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E186" s="34">
         <v>270</v>
@@ -36925,7 +36922,7 @@
         <v>36</v>
       </c>
       <c r="D187" s="93" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E187" s="34">
         <v>255</v>
@@ -36955,7 +36952,7 @@
         <v>171</v>
       </c>
       <c r="D188" s="93" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E188" s="34">
         <v>250</v>
@@ -36989,7 +36986,7 @@
         <v>374</v>
       </c>
       <c r="D189" s="93" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E189" s="34">
         <v>260</v>
@@ -37023,7 +37020,7 @@
         <v>461</v>
       </c>
       <c r="D190" s="93" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E190" s="34">
         <v>43</v>
@@ -37057,7 +37054,7 @@
         <v>462</v>
       </c>
       <c r="D191" s="93" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="E191" s="34">
         <v>250</v>
@@ -37119,7 +37116,7 @@
         <v>430</v>
       </c>
       <c r="D193" s="93" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E193" s="34">
         <v>250</v>
@@ -37149,7 +37146,7 @@
         <v>79</v>
       </c>
       <c r="D194" s="93" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E194" s="34">
         <v>250</v>
@@ -37207,7 +37204,7 @@
         <v>38</v>
       </c>
       <c r="D196" s="93" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E196" s="34">
         <v>245</v>
@@ -37237,7 +37234,7 @@
         <v>69</v>
       </c>
       <c r="D197" s="94" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E197" s="34">
         <v>255</v>
@@ -37267,7 +37264,7 @@
         <v>410</v>
       </c>
       <c r="D198" s="93" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E198" s="34">
         <v>240</v>
@@ -37297,7 +37294,7 @@
         <v>411</v>
       </c>
       <c r="D199" s="93" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E199" s="34">
         <v>225</v>
@@ -37327,7 +37324,7 @@
         <v>409</v>
       </c>
       <c r="D200" s="93" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="E200" s="34">
         <v>270</v>
@@ -37357,7 +37354,7 @@
         <v>57</v>
       </c>
       <c r="D201" s="93" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E201" s="34">
         <v>240</v>
@@ -37387,7 +37384,7 @@
         <v>412</v>
       </c>
       <c r="D202" s="93" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E202" s="34">
         <v>250</v>
@@ -37417,7 +37414,7 @@
         <v>63</v>
       </c>
       <c r="D203" s="93" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E203" s="34">
         <v>270</v>
@@ -37447,7 +37444,7 @@
         <v>36</v>
       </c>
       <c r="D204" s="93" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E204" s="34">
         <v>255</v>
@@ -37477,7 +37474,7 @@
         <v>76</v>
       </c>
       <c r="D205" s="93" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E205" s="34">
         <v>250</v>
@@ -37511,7 +37508,7 @@
         <v>340</v>
       </c>
       <c r="D206" s="93" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E206" s="34">
         <v>260</v>
@@ -37545,7 +37542,7 @@
         <v>488</v>
       </c>
       <c r="D207" s="93" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E207" s="34">
         <v>250</v>
@@ -37579,7 +37576,7 @@
         <v>49</v>
       </c>
       <c r="D208" s="93" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E208" s="34">
         <v>250</v>
@@ -37613,7 +37610,7 @@
         <v>55</v>
       </c>
       <c r="D209" s="93" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E209" s="34">
         <v>270</v>
@@ -37647,7 +37644,7 @@
         <v>489</v>
       </c>
       <c r="D210" s="93" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E210" s="34">
         <v>250</v>
@@ -37681,7 +37678,7 @@
         <v>76</v>
       </c>
       <c r="D211" s="93" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E211" s="34">
         <v>250</v>
@@ -37715,7 +37712,7 @@
         <v>72</v>
       </c>
       <c r="D212" s="93" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E212" s="34">
         <v>250</v>
@@ -37745,7 +37742,7 @@
         <v>40</v>
       </c>
       <c r="D213" s="93" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E213" s="34">
         <v>240</v>
@@ -37803,7 +37800,7 @@
         <v>462</v>
       </c>
       <c r="D215" s="93" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="E215" s="34">
         <v>245</v>
@@ -37833,7 +37830,7 @@
         <v>374</v>
       </c>
       <c r="D216" s="93" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E216" s="34">
         <v>260</v>
@@ -37863,7 +37860,7 @@
         <v>64</v>
       </c>
       <c r="D217" s="93" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E217" s="34">
         <v>230</v>
@@ -37893,7 +37890,7 @@
         <v>90</v>
       </c>
       <c r="D218" s="93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E218" s="34">
         <v>43</v>
@@ -37951,7 +37948,7 @@
         <v>167</v>
       </c>
       <c r="D220" s="93" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E220" s="34">
         <v>260</v>
@@ -37985,7 +37982,7 @@
         <v>45</v>
       </c>
       <c r="D221" s="93" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E221" s="34">
         <v>260</v>
@@ -38019,7 +38016,7 @@
         <v>559</v>
       </c>
       <c r="D222" s="93" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E222" s="34">
         <v>255</v>
@@ -38053,7 +38050,7 @@
         <v>175</v>
       </c>
       <c r="D223" s="93" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E223" s="34">
         <v>260</v>
@@ -38087,7 +38084,7 @@
         <v>560</v>
       </c>
       <c r="D224" s="93" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E224" s="34">
         <v>43</v>
@@ -38121,7 +38118,7 @@
         <v>76</v>
       </c>
       <c r="D225" s="93" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E225" s="34">
         <v>250</v>
@@ -38149,7 +38146,7 @@
         <v>49</v>
       </c>
       <c r="D226" s="93" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E226" s="34">
         <v>230</v>
@@ -38177,7 +38174,7 @@
         <v>55</v>
       </c>
       <c r="D227" s="93" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E227" s="34">
         <v>240</v>
@@ -38205,7 +38202,7 @@
         <v>489</v>
       </c>
       <c r="D228" s="93" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E228" s="34">
         <v>245</v>
@@ -38233,7 +38230,7 @@
         <v>167</v>
       </c>
       <c r="D229" s="93" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E229" s="34">
         <v>260</v>
@@ -38267,7 +38264,7 @@
         <v>559</v>
       </c>
       <c r="D230" s="93" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E230" s="34">
         <v>255</v>
@@ -38301,7 +38298,7 @@
         <v>175</v>
       </c>
       <c r="D231" s="93" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E231" s="34">
         <v>260</v>
@@ -38367,7 +38364,7 @@
         <v>559</v>
       </c>
       <c r="D233" s="93" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E233" s="34">
         <v>255</v>
@@ -38401,7 +38398,7 @@
         <v>175</v>
       </c>
       <c r="D234" s="93" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E234" s="34">
         <v>260</v>
@@ -38435,7 +38432,7 @@
         <v>215</v>
       </c>
       <c r="D235" s="93" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E235" s="34">
         <v>250</v>
@@ -38469,7 +38466,7 @@
         <v>159</v>
       </c>
       <c r="D236" s="93" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E236" s="34">
         <v>250</v>
@@ -38503,7 +38500,7 @@
         <v>186</v>
       </c>
       <c r="D237" s="93" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E237" s="34">
         <v>280</v>
@@ -38537,7 +38534,7 @@
         <v>2242</v>
       </c>
       <c r="D238" s="93" t="s">
-        <v>1063</v>
+        <v>1077</v>
       </c>
       <c r="E238" s="34">
         <v>260</v>
@@ -38571,7 +38568,7 @@
         <v>225</v>
       </c>
       <c r="D239" s="93" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E239" s="34">
         <v>250</v>
@@ -38605,7 +38602,7 @@
         <v>302</v>
       </c>
       <c r="D240" s="93" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E240" s="34">
         <v>240</v>
@@ -38639,7 +38636,7 @@
         <v>2186</v>
       </c>
       <c r="D241" s="93" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E241" s="34">
         <v>68</v>
@@ -39049,7 +39046,7 @@
         <v>143</v>
       </c>
       <c r="D255" s="93" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E255" s="34">
         <v>250</v>
@@ -39101,7 +39098,7 @@
         <v>183</v>
       </c>
       <c r="D257" s="93" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E257" s="34">
         <v>260</v>
@@ -39153,7 +39150,7 @@
         <v>154</v>
       </c>
       <c r="D259" s="93" t="s">
-        <v>1082</v>
+        <v>582</v>
       </c>
       <c r="E259" s="34">
         <v>250</v>
@@ -39205,7 +39202,7 @@
         <v>330</v>
       </c>
       <c r="D261" s="93" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E261" s="34">
         <v>230</v>
@@ -39257,7 +39254,7 @@
         <v>302</v>
       </c>
       <c r="D263" s="93" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E263" s="34">
         <v>240</v>
@@ -39309,7 +39306,7 @@
         <v>241</v>
       </c>
       <c r="D265" s="93" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E265" s="34">
         <v>260</v>
@@ -39355,7 +39352,7 @@
         <v>55</v>
       </c>
       <c r="D267" s="93" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E267" s="34">
         <v>250</v>
@@ -39407,7 +39404,7 @@
         <v>2186</v>
       </c>
       <c r="D269" s="93" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E269" s="34">
         <v>68</v>
@@ -46766,6 +46763,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -46775,11 +46777,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -46810,17 +46807,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
@@ -46845,10 +46842,10 @@
       <c r="D2" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="110" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="98" t="s">
@@ -46860,7 +46857,7 @@
       <c r="I2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="104" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="95" t="s">
@@ -46873,12 +46870,12 @@
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
       <c r="D3" s="116"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="99"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
-      <c r="J3" s="111"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
@@ -49632,6 +49629,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
@@ -49641,11 +49643,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49678,18 +49675,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
@@ -49717,10 +49714,10 @@
       <c r="E2" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="110" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="98" t="s">
@@ -49732,7 +49729,7 @@
       <c r="J2" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="104" t="s">
         <v>105</v>
       </c>
       <c r="L2" s="95" t="s">
@@ -49746,12 +49743,12 @@
       <c r="C3" s="99"/>
       <c r="D3" s="116"/>
       <c r="E3" s="99"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="105"/>
       <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
@@ -59299,11 +59296,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -59314,6 +59306,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -59348,18 +59345,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
@@ -59387,10 +59384,10 @@
       <c r="E2" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="110" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="98" t="s">
@@ -59402,7 +59399,7 @@
       <c r="J2" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="104" t="s">
         <v>105</v>
       </c>
       <c r="L2" s="95" t="s">
@@ -59416,12 +59413,12 @@
       <c r="C3" s="99"/>
       <c r="D3" s="118"/>
       <c r="E3" s="99"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="105"/>
       <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
@@ -77691,11 +77688,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -77706,6 +77698,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
